--- a/uni_craw_tron.trade.ec.europa.eu_anti_dumping/EU_Trade - Copy.xlsx
+++ b/uni_craw_tron.trade.ec.europa.eu_anti_dumping/EU_Trade - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_tron.trade.ec.europa.eu_anti_dumping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_4CF162F6AE7B88122F2C4CE76DAC18797878A353" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{185C9B7D-A9E6-4C65-A993-230B9436857F}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_4CF162F6AE7B88122F2C4CE76DAC18797878A353" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A3C905F-CA4F-4A71-AB88-AB0877CA0DC3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="246">
   <si>
     <t>Product</t>
   </si>
@@ -772,6 +772,9 @@
   <si>
     <t>AD669
 R785</t>
+  </si>
+  <si>
+    <t>AD695</t>
   </si>
   <si>
     <t>AD568
@@ -1174,6 +1177,9 @@
   <si>
     <t>AD649
 Ongoing: R826</t>
+  </si>
+  <si>
+    <t>AD690</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1262,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1551,23 +1553,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.5546875" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1608,11 +1610,11 @@
         <v>143</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1630,10 +1632,10 @@
         <v>143</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1653,10 +1655,10 @@
         <v>143</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1676,10 +1678,10 @@
         <v>143</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1699,10 +1701,10 @@
         <v>143</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1722,10 +1724,10 @@
         <v>143</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1745,10 +1747,10 @@
         <v>143</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1768,10 +1770,10 @@
         <v>143</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1791,10 +1793,10 @@
         <v>143</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1814,10 +1816,10 @@
         <v>143</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1837,10 +1839,10 @@
         <v>143</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1860,10 +1862,10 @@
         <v>143</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1883,10 +1885,10 @@
         <v>143</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1906,10 +1908,10 @@
         <v>143</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1929,10 +1931,10 @@
         <v>143</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1952,10 +1954,10 @@
         <v>143</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1975,10 +1977,10 @@
         <v>143</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1998,10 +2000,10 @@
         <v>143</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2021,10 +2023,10 @@
         <v>143</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2044,10 +2046,10 @@
         <v>143</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2065,10 +2067,10 @@
         <v>143</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2088,10 +2090,10 @@
         <v>143</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2137,7 +2139,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2160,7 +2162,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2229,7 +2231,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2252,7 +2254,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2275,7 +2277,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2298,7 +2300,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2365,7 +2367,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2388,7 +2390,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2411,7 +2413,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2549,7 +2551,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2595,7 +2597,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2618,7 +2620,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2779,7 +2781,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2825,7 +2827,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2848,7 +2850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2871,7 +2873,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2891,10 +2893,10 @@
         <v>142</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2940,7 +2942,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2986,7 +2988,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3009,7 +3011,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3032,7 +3034,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3055,7 +3057,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3078,7 +3080,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3121,10 +3123,10 @@
         <v>142</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3147,7 +3149,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3190,10 +3192,10 @@
         <v>142</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3213,10 +3215,10 @@
         <v>142</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3236,10 +3238,10 @@
         <v>142</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3259,10 +3261,10 @@
         <v>142</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3282,10 +3284,10 @@
         <v>142</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3305,10 +3307,10 @@
         <v>142</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3328,10 +3330,10 @@
         <v>142</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3351,10 +3353,10 @@
         <v>142</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3374,10 +3376,10 @@
         <v>142</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3395,10 +3397,10 @@
         <v>142</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3418,10 +3420,10 @@
         <v>142</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3441,10 +3443,10 @@
         <v>142</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3464,10 +3466,10 @@
         <v>142</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3485,10 +3487,10 @@
         <v>142</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3506,10 +3508,10 @@
         <v>142</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3529,10 +3531,10 @@
         <v>142</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3552,10 +3554,10 @@
         <v>142</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3575,10 +3577,10 @@
         <v>142</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3598,10 +3600,10 @@
         <v>142</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3621,10 +3623,10 @@
         <v>142</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3644,10 +3646,10 @@
         <v>142</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3667,10 +3669,10 @@
         <v>142</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3688,10 +3690,10 @@
         <v>142</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3709,10 +3711,10 @@
         <v>142</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3732,10 +3734,10 @@
         <v>142</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3755,10 +3757,10 @@
         <v>142</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3778,10 +3780,10 @@
         <v>142</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3801,10 +3803,10 @@
         <v>142</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3822,10 +3824,10 @@
         <v>142</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3845,10 +3847,10 @@
         <v>142</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3866,10 +3868,10 @@
         <v>142</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3889,10 +3891,10 @@
         <v>142</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3912,10 +3914,10 @@
         <v>142</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3935,7 +3937,7 @@
         <v>142</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
